--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N2">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q2">
-        <v>0.3096395771466667</v>
+        <v>15.46651735766667</v>
       </c>
       <c r="R2">
-        <v>2.78675619432</v>
+        <v>139.198656219</v>
       </c>
       <c r="S2">
-        <v>6.105425205983914E-05</v>
+        <v>0.004252370810721421</v>
       </c>
       <c r="T2">
-        <v>6.105425205983914E-05</v>
+        <v>0.004252370810721421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q3">
-        <v>35.09942411196445</v>
+        <v>63.21964917333333</v>
       </c>
       <c r="R3">
-        <v>315.89481700768</v>
+        <v>568.97684256</v>
       </c>
       <c r="S3">
-        <v>0.006920850062626247</v>
+        <v>0.01738163702867938</v>
       </c>
       <c r="T3">
-        <v>0.006920850062626247</v>
+        <v>0.01738163702867938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.844986</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>26.534958</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.8904062077467443</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P4">
-        <v>0.8904062077467442</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q4">
-        <v>287.6846349693474</v>
+        <v>0.1769987706666666</v>
       </c>
       <c r="R4">
-        <v>2589.161714724126</v>
+        <v>1.592988936</v>
       </c>
       <c r="S4">
-        <v>0.05672521057875508</v>
+        <v>4.866411671813218E-05</v>
       </c>
       <c r="T4">
-        <v>0.05672521057875507</v>
+        <v>4.866411671813218E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.155757</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>36.467271</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.02380950848190151</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.02380950848190151</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009520000000000001</v>
+        <v>5.782978</v>
       </c>
       <c r="N5">
-        <v>0.02856</v>
+        <v>17.348934</v>
       </c>
       <c r="O5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q5">
-        <v>0.11572280664</v>
+        <v>338.784200174</v>
       </c>
       <c r="R5">
-        <v>1.04150525976</v>
+        <v>3049.057801566</v>
       </c>
       <c r="S5">
-        <v>2.281804370997426E-05</v>
+        <v>0.09314547099637818</v>
       </c>
       <c r="T5">
-        <v>2.281804370997426E-05</v>
+        <v>0.09314547099637818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.155757</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>36.467271</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.02380950848190151</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.02380950848190151</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.079146666666667</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N6">
-        <v>3.23744</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q6">
-        <v>13.11784464736</v>
+        <v>0.1719801603333333</v>
       </c>
       <c r="R6">
-        <v>118.06060182624</v>
+        <v>1.547821443</v>
       </c>
       <c r="S6">
-        <v>0.00258655628250767</v>
+        <v>4.728429787473413E-05</v>
       </c>
       <c r="T6">
-        <v>0.002586556282507671</v>
+        <v>4.728429787473413E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>36.467271</v>
       </c>
       <c r="I7">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J7">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>8.844986</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N7">
-        <v>26.534958</v>
+        <v>0.792031</v>
       </c>
       <c r="O7">
-        <v>0.8904062077467443</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P7">
-        <v>0.8904062077467442</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q7">
-        <v>107.517500484402</v>
+        <v>3.209245457489001</v>
       </c>
       <c r="R7">
-        <v>967.6575043596181</v>
+        <v>28.88320911740101</v>
       </c>
       <c r="S7">
-        <v>0.02120013415568386</v>
+        <v>0.0008823513007019543</v>
       </c>
       <c r="T7">
-        <v>0.02120013415568386</v>
+        <v>0.0008823513007019542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.0671593333333</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>453.201478</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.2958955835892216</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.2958955835892217</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.009520000000000001</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N8">
-        <v>0.02856</v>
+        <v>3.23744</v>
       </c>
       <c r="O8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q8">
-        <v>1.438159356853334</v>
+        <v>13.11784464736</v>
       </c>
       <c r="R8">
-        <v>12.94343421168</v>
+        <v>118.06060182624</v>
       </c>
       <c r="S8">
-        <v>0.0002835740336706011</v>
+        <v>0.003606625744376842</v>
       </c>
       <c r="T8">
-        <v>0.0002835740336706012</v>
+        <v>0.003606625744376842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.0671593333333</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>453.201478</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.2958955835892216</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.2958955835892217</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.079146666666667</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N9">
-        <v>3.23744</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q9">
-        <v>163.0236214373689</v>
+        <v>0.036726593816</v>
       </c>
       <c r="R9">
-        <v>1467.21259293632</v>
+        <v>0.330539344344</v>
       </c>
       <c r="S9">
-        <v>0.03214474508286243</v>
+        <v>1.009762520603677E-05</v>
       </c>
       <c r="T9">
-        <v>0.03214474508286243</v>
+        <v>1.009762520603677E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.0671593333333</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>453.201478</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.2958955835892216</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.2958955835892217</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.844986</v>
+        <v>5.782978</v>
       </c>
       <c r="N10">
-        <v>26.534958</v>
+        <v>17.348934</v>
       </c>
       <c r="O10">
-        <v>0.8904062077467443</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P10">
-        <v>0.8904062077467442</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q10">
-        <v>1336.186909363103</v>
+        <v>70.296475304346</v>
       </c>
       <c r="R10">
-        <v>12025.68218426792</v>
+        <v>632.668277739114</v>
       </c>
       <c r="S10">
-        <v>0.2634672644726886</v>
+        <v>0.01932734259226263</v>
       </c>
       <c r="T10">
-        <v>0.2634672644726886</v>
+        <v>0.01932734259226262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.743353333333333</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>29.23006</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.01908432801282251</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.01908432801282251</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009520000000000001</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N11">
-        <v>0.02856</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q11">
-        <v>0.09275672373333334</v>
+        <v>0.035685250633</v>
       </c>
       <c r="R11">
-        <v>0.8348105136</v>
+        <v>0.3211672556970001</v>
       </c>
       <c r="S11">
-        <v>1.828962706655977E-05</v>
+        <v>9.811317871752635E-06</v>
       </c>
       <c r="T11">
-        <v>1.828962706655977E-05</v>
+        <v>9.811317871752633E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.743353333333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H12">
-        <v>29.23006</v>
+        <v>443.103859</v>
       </c>
       <c r="I12">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J12">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.079146666666667</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N12">
-        <v>3.23744</v>
+        <v>0.792031</v>
       </c>
       <c r="O12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q12">
-        <v>10.51450727182222</v>
+        <v>38.99466583862545</v>
       </c>
       <c r="R12">
-        <v>94.6305654464</v>
+        <v>350.951992547629</v>
       </c>
       <c r="S12">
-        <v>0.002073234252463699</v>
+        <v>0.01072120988528879</v>
       </c>
       <c r="T12">
-        <v>0.0020732342524637</v>
+        <v>0.01072120988528879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.743353333333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H13">
-        <v>29.23006</v>
+        <v>443.103859</v>
       </c>
       <c r="I13">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J13">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.844986</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N13">
-        <v>26.534958</v>
+        <v>3.23744</v>
       </c>
       <c r="O13">
-        <v>0.8904062077467443</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P13">
-        <v>0.8904062077467442</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q13">
-        <v>86.17982382638667</v>
+        <v>159.3913508089956</v>
       </c>
       <c r="R13">
-        <v>775.6184144374799</v>
+        <v>1434.52215728096</v>
       </c>
       <c r="S13">
-        <v>0.01699280413329225</v>
+        <v>0.04382312527038633</v>
       </c>
       <c r="T13">
-        <v>0.01699280413329225</v>
+        <v>0.04382312527038631</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.5917893333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>427.775368</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2792948573734662</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2792948573734662</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.009520000000000001</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N14">
-        <v>0.02856</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O14">
-        <v>0.0009583584527718874</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P14">
-        <v>0.0009583584527718874</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q14">
-        <v>1.357473834453333</v>
+        <v>0.4462548197751111</v>
       </c>
       <c r="R14">
-        <v>12.21726451008</v>
+        <v>4.016293377976</v>
       </c>
       <c r="S14">
-        <v>0.00026766458737958</v>
+        <v>0.0001226934885127698</v>
       </c>
       <c r="T14">
-        <v>0.00026766458737958</v>
+        <v>0.0001226934885127698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.5917893333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>427.775368</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2792948573734662</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2792948573734662</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.079146666666667</v>
+        <v>5.782978</v>
       </c>
       <c r="N15">
-        <v>3.23744</v>
+        <v>17.348934</v>
       </c>
       <c r="O15">
-        <v>0.1086354338004839</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P15">
-        <v>0.1086354338004839</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q15">
-        <v>153.8774541531022</v>
+        <v>854.1532894373673</v>
       </c>
       <c r="R15">
-        <v>1384.89708737792</v>
+        <v>7687.379604936306</v>
       </c>
       <c r="S15">
-        <v>0.03034131798901077</v>
+        <v>0.2348412659353268</v>
       </c>
       <c r="T15">
-        <v>0.03034131798901077</v>
+        <v>0.2348412659353268</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.5917893333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>427.775368</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2792948573734662</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2792948573734662</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.844986</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N16">
-        <v>26.534958</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O16">
-        <v>0.8904062077467443</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P16">
-        <v>0.8904062077467442</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q16">
-        <v>1261.222380368283</v>
+        <v>0.4336017429125556</v>
       </c>
       <c r="R16">
-        <v>11351.00142331454</v>
+        <v>3.902415686213</v>
       </c>
       <c r="S16">
-        <v>0.2486858747970758</v>
+        <v>0.0001192146462193253</v>
       </c>
       <c r="T16">
-        <v>0.2486858747970758</v>
+        <v>0.0001192146462193252</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>162.458898</v>
+        <v>6.990769</v>
       </c>
       <c r="H17">
-        <v>487.376694</v>
+        <v>20.972307</v>
       </c>
       <c r="I17">
-        <v>0.3182086076491469</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J17">
-        <v>0.318208607649147</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N17">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O17">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P17">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q17">
-        <v>1.54660870896</v>
+        <v>1.845635253946333</v>
       </c>
       <c r="R17">
-        <v>13.91947838064</v>
+        <v>16.610717285517</v>
       </c>
       <c r="S17">
-        <v>0.0003049579088853331</v>
+        <v>0.0005074397357611623</v>
       </c>
       <c r="T17">
-        <v>0.0003049579088853331</v>
+        <v>0.0005074397357611623</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>162.458898</v>
+        <v>6.990769</v>
       </c>
       <c r="H18">
-        <v>487.376694</v>
+        <v>20.972307</v>
       </c>
       <c r="I18">
-        <v>0.3182086076491469</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J18">
-        <v>0.318208607649147</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,84 +1559,828 @@
         <v>3.23744</v>
       </c>
       <c r="O18">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P18">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q18">
-        <v>175.31697824704</v>
+        <v>7.544065063786667</v>
       </c>
       <c r="R18">
-        <v>1577.85280422336</v>
+        <v>67.89658557408001</v>
       </c>
       <c r="S18">
-        <v>0.03456873013101305</v>
+        <v>0.002074168432981307</v>
       </c>
       <c r="T18">
-        <v>0.03456873013101305</v>
+        <v>0.002074168432981307</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.990769</v>
+      </c>
+      <c r="H19">
+        <v>20.972307</v>
+      </c>
+      <c r="I19">
+        <v>0.01370820162305882</v>
+      </c>
+      <c r="J19">
+        <v>0.01370820162305882</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P19">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q19">
+        <v>0.02112144340533333</v>
+      </c>
+      <c r="R19">
+        <v>0.190092990648</v>
+      </c>
+      <c r="S19">
+        <v>5.807138565206633E-06</v>
+      </c>
+      <c r="T19">
+        <v>5.807138565206634E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.990769</v>
+      </c>
+      <c r="H20">
+        <v>20.972307</v>
+      </c>
+      <c r="I20">
+        <v>0.01370820162305882</v>
+      </c>
+      <c r="J20">
+        <v>0.01370820162305882</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.782978</v>
+      </c>
+      <c r="N20">
+        <v>17.348934</v>
+      </c>
+      <c r="O20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q20">
+        <v>40.427463330082</v>
+      </c>
+      <c r="R20">
+        <v>363.847169970738</v>
+      </c>
+      <c r="S20">
+        <v>0.01111514383237253</v>
+      </c>
+      <c r="T20">
+        <v>0.01111514383237253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.990769</v>
+      </c>
+      <c r="H21">
+        <v>20.972307</v>
+      </c>
+      <c r="I21">
+        <v>0.01370820162305882</v>
+      </c>
+      <c r="J21">
+        <v>0.01370820162305882</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q21">
+        <v>0.02052256752766667</v>
+      </c>
+      <c r="R21">
+        <v>0.184703107749</v>
+      </c>
+      <c r="S21">
+        <v>5.642483378615935E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.642483378615935E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>187.8101756666667</v>
+      </c>
+      <c r="H22">
+        <v>563.430527</v>
+      </c>
+      <c r="I22">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="J22">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.792031</v>
+      </c>
+      <c r="O22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q22">
+        <v>49.58382708114856</v>
+      </c>
+      <c r="R22">
+        <v>446.254443730337</v>
+      </c>
+      <c r="S22">
+        <v>0.01363259834698454</v>
+      </c>
+      <c r="T22">
+        <v>0.01363259834698454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>187.8101756666667</v>
+      </c>
+      <c r="H23">
+        <v>563.430527</v>
+      </c>
+      <c r="I23">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="J23">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.23744</v>
+      </c>
+      <c r="O23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q23">
+        <v>202.6747250367644</v>
+      </c>
+      <c r="R23">
+        <v>1824.07252533088</v>
+      </c>
+      <c r="S23">
+        <v>0.05572347445044657</v>
+      </c>
+      <c r="T23">
+        <v>0.05572347445044657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>187.8101756666667</v>
+      </c>
+      <c r="H24">
+        <v>563.430527</v>
+      </c>
+      <c r="I24">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="J24">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P24">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q24">
+        <v>0.5674371440808887</v>
+      </c>
+      <c r="R24">
+        <v>5.106934296727999</v>
+      </c>
+      <c r="S24">
+        <v>0.000156011407908362</v>
+      </c>
+      <c r="T24">
+        <v>0.000156011407908362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>162.458898</v>
-      </c>
-      <c r="H19">
-        <v>487.376694</v>
-      </c>
-      <c r="I19">
-        <v>0.3182086076491469</v>
-      </c>
-      <c r="J19">
-        <v>0.318208607649147</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.844986</v>
-      </c>
-      <c r="N19">
-        <v>26.534958</v>
-      </c>
-      <c r="O19">
-        <v>0.8904062077467443</v>
-      </c>
-      <c r="P19">
-        <v>0.8904062077467442</v>
-      </c>
-      <c r="Q19">
-        <v>1436.946678385428</v>
-      </c>
-      <c r="R19">
-        <v>12932.52010546885</v>
-      </c>
-      <c r="S19">
-        <v>0.2833349196092486</v>
-      </c>
-      <c r="T19">
-        <v>0.2833349196092486</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>187.8101756666667</v>
+      </c>
+      <c r="H25">
+        <v>563.430527</v>
+      </c>
+      <c r="I25">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="J25">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.782978</v>
+      </c>
+      <c r="N25">
+        <v>17.348934</v>
+      </c>
+      <c r="O25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q25">
+        <v>1086.102114056469</v>
+      </c>
+      <c r="R25">
+        <v>9774.919026508218</v>
+      </c>
+      <c r="S25">
+        <v>0.298613373681515</v>
+      </c>
+      <c r="T25">
+        <v>0.298613373681515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>187.8101756666667</v>
+      </c>
+      <c r="H26">
+        <v>563.430527</v>
+      </c>
+      <c r="I26">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="J26">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q26">
+        <v>0.5513480723654444</v>
+      </c>
+      <c r="R26">
+        <v>4.962132651289</v>
+      </c>
+      <c r="S26">
+        <v>0.0001515878717397335</v>
+      </c>
+      <c r="T26">
+        <v>0.0001515878717397335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H27">
+        <v>290.186471</v>
+      </c>
+      <c r="I27">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J27">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.792031</v>
+      </c>
+      <c r="O27">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P27">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q27">
+        <v>25.53740897917789</v>
+      </c>
+      <c r="R27">
+        <v>229.836680812601</v>
+      </c>
+      <c r="S27">
+        <v>0.007021266004054975</v>
+      </c>
+      <c r="T27">
+        <v>0.007021266004054975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H28">
+        <v>290.186471</v>
+      </c>
+      <c r="I28">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J28">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N28">
+        <v>3.23744</v>
+      </c>
+      <c r="O28">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P28">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q28">
+        <v>104.3845876304711</v>
+      </c>
+      <c r="R28">
+        <v>939.46128867424</v>
+      </c>
+      <c r="S28">
+        <v>0.02869954258377228</v>
+      </c>
+      <c r="T28">
+        <v>0.02869954258377228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H29">
+        <v>290.186471</v>
+      </c>
+      <c r="I29">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J29">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P29">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q29">
+        <v>0.2922500192382221</v>
+      </c>
+      <c r="R29">
+        <v>2.630250173144</v>
+      </c>
+      <c r="S29">
+        <v>8.035134364785505E-05</v>
+      </c>
+      <c r="T29">
+        <v>8.035134364785506E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H30">
+        <v>290.186471</v>
+      </c>
+      <c r="I30">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J30">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.782978</v>
+      </c>
+      <c r="N30">
+        <v>17.348934</v>
+      </c>
+      <c r="O30">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P30">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q30">
+        <v>559.3806592302126</v>
+      </c>
+      <c r="R30">
+        <v>5034.425933071913</v>
+      </c>
+      <c r="S30">
+        <v>0.1537963545628814</v>
+      </c>
+      <c r="T30">
+        <v>0.1537963545628814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H31">
+        <v>290.186471</v>
+      </c>
+      <c r="I31">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J31">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P31">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q31">
+        <v>0.2839635833441111</v>
+      </c>
+      <c r="R31">
+        <v>2.555672250097</v>
+      </c>
+      <c r="S31">
+        <v>7.807306746543022E-05</v>
+      </c>
+      <c r="T31">
+        <v>7.807306746543022E-05</v>
       </c>
     </row>
   </sheetData>
